--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -45,7 +45,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456347</t>
+    <t>CHAP456100</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>

--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -8,7 +8,6 @@
     <sheet state="visible" name="ReceivePayment" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="UpdateReservation" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="CheckInKeyIn" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -24,6 +23,12 @@
     <t>confirmation Number</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>Prepaid Or Partial</t>
   </si>
   <si>
@@ -45,7 +50,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456100</t>
+    <t>CHAP456400</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -120,7 +125,7 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>BRHM1166048</t>
+    <t>BRHM1166143</t>
   </si>
   <si>
     <t>Card</t>
@@ -142,7 +147,7 @@
     </r>
   </si>
   <si>
-    <t>BRHM1166047</t>
+    <t>BRHM1166144</t>
   </si>
   <si>
     <t>Cash</t>
@@ -152,22 +157,17 @@
   </si>
   <si>
     <t>Update Reservation</t>
-  </si>
-  <si>
-    <t>BRHM1166045</t>
-  </si>
-  <si>
-    <t>Check In / Key In</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d-mmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,9 +175,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF22191B"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -185,18 +194,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF22191B"/>
-      <name val="Monospace"/>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -229,26 +234,41 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,10 +295,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -488,7 +504,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="33.5"/>
     <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col customWidth="1" min="3" max="5" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,10 +514,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -516,21 +532,27 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -541,6 +563,12 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -559,72 +587,90 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45761.0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45761.0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45761.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45761.0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -649,55 +695,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11">
         <v>45927.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>686.0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12">
         <v>30048.0</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
+      <c r="H2" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -719,19 +765,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -754,52 +800,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -6,10 +6,8 @@
     <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ReceivePayment" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sheet20" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CashPayment" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="UpdateReservation" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="CheckInKeyIn" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="UpdateReservation" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Select Source</t>
   </si>
@@ -25,6 +23,12 @@
     <t>confirmation Number</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>Prepaid Or Partial</t>
   </si>
   <si>
@@ -46,7 +50,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456301</t>
+    <t>CHAP456401</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -121,7 +125,7 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>BRHM1066027</t>
+    <t>BRHM1166221</t>
   </si>
   <si>
     <t>Card</t>
@@ -143,11 +147,7 @@
     </r>
   </si>
   <si>
-    <t>Confirmation Number        Payment Mode
-BRHM1066028        Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRHM1066028 </t>
+    <t>BRHM1166162</t>
   </si>
   <si>
     <t>Cash</t>
@@ -156,23 +156,21 @@
     <t>Click Button</t>
   </si>
   <si>
-    <t>BRHM1065468</t>
+    <t>BRHM1166163</t>
   </si>
   <si>
     <t>Update Reservation</t>
-  </si>
-  <si>
-    <t>Check In / Key In</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d-mmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -180,9 +178,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF22191B"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -190,18 +197,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF22191B"/>
-      <name val="Monospace"/>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -234,26 +237,41 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -280,14 +298,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -497,7 +507,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="33.5"/>
     <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col customWidth="1" min="3" max="5" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -507,10 +517,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -525,21 +535,27 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -550,6 +566,12 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -568,72 +590,90 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45762.0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45762.0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45762.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45762.0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -658,55 +698,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11">
         <v>45927.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>686.0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12">
         <v>30048.0</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
+      <c r="H2" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -728,8 +768,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -738,37 +789,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -783,52 +803,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>42</v>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
     </row>

--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranja\eclipse-workspace\KodaCars_ParkingThatPays_Automation\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844A796-85FF-4E51-925B-10A434625863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ReceivePayment" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="UpdateReservation" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="CheckInKeyIn" sheetId="6" r:id="rId9"/>
+    <sheet name="ThirdParty" sheetId="1" r:id="rId1"/>
+    <sheet name="KodaWalkIn" sheetId="2" r:id="rId2"/>
+    <sheet name="CardPayment" sheetId="3" r:id="rId3"/>
+    <sheet name="CashPayment" sheetId="4" r:id="rId4"/>
+    <sheet name="UpdateReservation" sheetId="5" r:id="rId5"/>
+    <sheet name="CheckInKeyIn" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Select Source</t>
   </si>
@@ -134,17 +143,15 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>MeenaKumari@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>BRHM1166047</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -158,45 +165,85 @@
   </si>
   <si>
     <t>Check In / Key In</t>
+  </si>
+  <si>
+    <t>BRHM1066105</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Billa</t>
+  </si>
+  <si>
+    <t>billa@gmail.com</t>
+  </si>
+  <si>
+    <t>BRHM1166246</t>
+  </si>
+  <si>
+    <t>BRHM1166245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF22191B"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF22191B"/>
       <name val="Monospace"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,7 +251,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -214,76 +261,60 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -473,25 +504,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.5"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -544,21 +578,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -581,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -604,7 +639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -628,27 +663,32 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="13.2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -673,10 +713,16 @@
       <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>35</v>
@@ -685,40 +731,86 @@
         <v>36</v>
       </c>
       <c r="D2" s="7">
-        <v>45927.0</v>
+        <v>45927</v>
       </c>
       <c r="E2" s="8">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="8">
-        <v>30048.0</v>
+        <v>30048</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4157760715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45927</v>
+      </c>
+      <c r="E3" s="8">
+        <v>686</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30048</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4157760715</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{81061AAD-713D-4602-AA5B-C8A5F6D4C2C1}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -726,84 +818,86 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.13"/>
-    <col customWidth="1" min="2" max="2" width="25.88"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranja\eclipse-workspace\KodaCars_ParkingThatPays_Automation\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844A796-85FF-4E51-925B-10A434625863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
+    <sheet name="ThirdParty" sheetId="1" r:id="rId1"/>
+    <sheet name="KodaWalkIn" sheetId="2" r:id="rId2"/>
+    <sheet name="CardPayment" sheetId="3" r:id="rId3"/>
+    <sheet name="CashPayment" sheetId="4" r:id="rId4"/>
+    <sheet name="UpdateReservation" sheetId="5" r:id="rId5"/>
+    <sheet name="CheckInKeyIn" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Select Source</t>
   </si>
@@ -41,7 +54,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456389</t>
+    <t>CHAP456100</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -77,24 +90,9 @@
     <t>North Carolina</t>
   </si>
   <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>NJ75445</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
     <t>Walk-in</t>
   </si>
   <si>
-    <t>Il754845</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -105,33 +103,147 @@
   </si>
   <si>
     <t>Arizona</t>
+  </si>
+  <si>
+    <t>Confirmation Number</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>Card Information</t>
+  </si>
+  <si>
+    <t>Card Expiry</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>Billing Name</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>BRHM1166048</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>4242 4242 4242 4242</t>
+  </si>
+  <si>
+    <t>Meena Kumari</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>MeenaKumari@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Click Button</t>
+  </si>
+  <si>
+    <t>Update Reservation</t>
+  </si>
+  <si>
+    <t>BRHM1166045</t>
+  </si>
+  <si>
+    <t>Check In / Key In</t>
+  </si>
+  <si>
+    <t>BRHM1066105</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Billa</t>
+  </si>
+  <si>
+    <t>billa@gmail.com</t>
+  </si>
+  <si>
+    <t>BRHM1166246</t>
+  </si>
+  <si>
+    <t>BRHM1166245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF22191B"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF22191B"/>
       <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,7 +251,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,42 +261,60 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -374,25 +504,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.5"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -445,139 +578,326 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.38"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="13.2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45927</v>
+      </c>
+      <c r="E2" s="8">
+        <v>686</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8">
+        <v>30048</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4157760715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45927</v>
+      </c>
+      <c r="E3" s="8">
+        <v>686</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30048</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="b">
         <v>0</v>
       </c>
+      <c r="J3" s="10">
+        <v>4157760715</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{81061AAD-713D-4602-AA5B-C8A5F6D4C2C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranja\eclipse-workspace\KodaCars_ParkingThatPays_Automation\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844A796-85FF-4E51-925B-10A434625863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="ThirdParty" sheetId="1" r:id="rId1"/>
-    <sheet name="KodaWalkIn" sheetId="2" r:id="rId2"/>
-    <sheet name="CardPayment" sheetId="3" r:id="rId3"/>
-    <sheet name="CashPayment" sheetId="4" r:id="rId4"/>
-    <sheet name="UpdateReservation" sheetId="5" r:id="rId5"/>
-    <sheet name="CheckInKeyIn" sheetId="6" r:id="rId6"/>
+    <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="ReceivePayment" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="UpdateReservation" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Select Source</t>
   </si>
@@ -33,6 +23,12 @@
     <t>confirmation Number</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>Prepaid Or Partial</t>
   </si>
   <si>
@@ -54,7 +50,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456100</t>
+    <t>CHAP456400</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -129,7 +125,7 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>BRHM1166048</t>
+    <t>BRHM1166143</t>
   </si>
   <si>
     <t>Card</t>
@@ -143,15 +139,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>MeenaKumari@gmail.com</t>
     </r>
   </si>
   <si>
+    <t>BRHM1166144</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -160,90 +158,50 @@
   <si>
     <t>Update Reservation</t>
   </si>
-  <si>
-    <t>BRHM1166045</t>
-  </si>
-  <si>
-    <t>Check In / Key In</t>
-  </si>
-  <si>
-    <t>BRHM1066105</t>
-  </si>
-  <si>
-    <t>Checkbox</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Billa</t>
-  </si>
-  <si>
-    <t>billa@gmail.com</t>
-  </si>
-  <si>
-    <t>BRHM1166246</t>
-  </si>
-  <si>
-    <t>BRHM1166245</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d-mmm"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.0"/>
       <color rgb="FF22191B"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF22191B"/>
-      <name val="Monospace"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF22191B"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,7 +209,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,60 +219,87 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -504,38 +489,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="3" max="5" width="17.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -550,21 +532,27 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45761.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -576,328 +564,258 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45761.0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45761.0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45761.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45761.0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.2">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18">
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7">
-        <v>45927</v>
-      </c>
-      <c r="E2" s="8">
-        <v>686</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="8">
-        <v>30048</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10">
-        <v>4157760715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45927</v>
-      </c>
-      <c r="E3" s="8">
-        <v>686</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="8">
-        <v>30048</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>4157760715</v>
+      <c r="D2" s="11">
+        <v>45927.0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>686.0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12">
+        <v>30048.0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{81061AAD-713D-4602-AA5B-C8A5F6D4C2C1}"/>
+    <hyperlink r:id="rId1" ref="H2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="2" max="2" width="25.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranja\eclipse-workspace\KodaCars_ParkingThatPays_Automation\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844A796-85FF-4E51-925B-10A434625863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ReceivePayment" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="UpdateReservation" sheetId="5" r:id="rId8"/>
+    <sheet name="ThirdParty" sheetId="1" r:id="rId1"/>
+    <sheet name="KodaWalkIn" sheetId="2" r:id="rId2"/>
+    <sheet name="CardPayment" sheetId="3" r:id="rId3"/>
+    <sheet name="CashPayment" sheetId="4" r:id="rId4"/>
+    <sheet name="UpdateReservation" sheetId="5" r:id="rId5"/>
+    <sheet name="CheckInKeyIn" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Select Source</t>
   </si>
@@ -23,12 +33,6 @@
     <t>confirmation Number</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>Prepaid Or Partial</t>
   </si>
   <si>
@@ -50,7 +54,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456400</t>
+    <t>CHAP456100</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -125,7 +129,7 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>BRHM1166143</t>
+    <t>BRHM1166048</t>
   </si>
   <si>
     <t>Card</t>
@@ -139,17 +143,15 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>MeenaKumari@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>BRHM1166144</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -157,51 +159,91 @@
   </si>
   <si>
     <t>Update Reservation</t>
+  </si>
+  <si>
+    <t>BRHM1166045</t>
+  </si>
+  <si>
+    <t>Check In / Key In</t>
+  </si>
+  <si>
+    <t>BRHM1066105</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Billa</t>
+  </si>
+  <si>
+    <t>billa@gmail.com</t>
+  </si>
+  <si>
+    <t>BRHM1166246</t>
+  </si>
+  <si>
+    <t>BRHM1166245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d-mmm"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF22191B"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF22191B"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF22191B"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF22191B"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +251,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -219,87 +261,60 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -489,35 +504,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.5"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="5" width="17.25"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -532,27 +550,21 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
-        <v>45761.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45761.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -564,258 +576,328 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8">
-        <v>45761.0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>45761.0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9">
-        <v>45761.0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>45761.0</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="13.2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="7">
+        <v>45927</v>
+      </c>
+      <c r="E2" s="8">
+        <v>686</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="8">
+        <v>30048</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11">
-        <v>45927.0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>686.0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="12">
-        <v>30048.0</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>40</v>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4157760715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45927</v>
+      </c>
+      <c r="E3" s="8">
+        <v>686</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30048</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4157760715</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{81061AAD-713D-4602-AA5B-C8A5F6D4C2C1}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.13"/>
-    <col customWidth="1" min="2" max="2" width="25.88"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -5,9 +5,11 @@
   <sheets>
     <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ReceivePayment" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="UpdateReservation" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="CardPayment" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CheckinCard" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="CheckinCash" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="CashPayment" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="UpdateReservation" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Select Source</t>
   </si>
@@ -50,7 +52,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456401</t>
+    <t>CHAP456402</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -125,7 +127,13 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>BRHM1166221</t>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>BRHM1166265</t>
   </si>
   <si>
     <t>Card</t>
@@ -147,16 +155,44 @@
     </r>
   </si>
   <si>
-    <t>BRHM1166162</t>
+    <t>BRHM1166266</t>
+  </si>
+  <si>
+    <t>Billa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>billa@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>BRHM1166246</t>
+  </si>
+  <si>
+    <t>Test@example.com</t>
+  </si>
+  <si>
+    <t>BRHM1166245</t>
+  </si>
+  <si>
+    <t>Test2@example.com</t>
+  </si>
+  <si>
+    <t>BRHM1066105</t>
   </si>
   <si>
     <t>Cash</t>
   </si>
   <si>
+    <t>BRHM1166267</t>
+  </si>
+  <si>
     <t>Click Button</t>
-  </si>
-  <si>
-    <t>BRHM1166163</t>
   </si>
   <si>
     <t>Update Reservation</t>
@@ -170,7 +206,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="d-mmm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -197,14 +233,23 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,13 +266,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -261,17 +312,50 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,6 +382,14 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -550,10 +642,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="4">
-        <v>45761.0</v>
+        <v>45765.0</v>
       </c>
       <c r="D2" s="4">
-        <v>45761.0</v>
+        <v>45765.0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -623,10 +715,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="8">
-        <v>45762.0</v>
+        <v>45765.0</v>
       </c>
       <c r="C2" s="8">
-        <v>45762.0</v>
+        <v>45765.0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>20</v>
@@ -652,10 +744,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="9">
-        <v>45762.0</v>
+        <v>45765.0</v>
       </c>
       <c r="C3" s="9">
-        <v>45762.0</v>
+        <v>45765.0</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>20</v>
@@ -695,69 +787,264 @@
     <col customWidth="1" min="2" max="2" width="18.0"/>
     <col customWidth="1" min="3" max="3" width="17.63"/>
     <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="I1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11">
+      <c r="B2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14">
         <v>45927.0</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="15">
         <v>686.0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="15">
+        <v>30048.0</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18">
+        <v>4.157760715E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="12">
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>686.0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="15">
         <v>30048.0</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>40</v>
+      <c r="H3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>4.157760715E9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="21">
+        <v>45927.0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>111.0</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="22">
+        <v>23455.0</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="24">
+        <v>4.087873645E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="21">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>111.0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="22">
+        <v>48767.0</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>4.080873645E9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -776,11 +1063,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
+      <c r="A2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -807,15 +1094,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranja\eclipse-workspace\KodaCars_ParkingThatPays_Automation\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA51DCB4-95B1-45E3-B508-7075EBE14F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="ThirdParty" sheetId="1" r:id="rId1"/>
-    <sheet name="KodaWalkIn" sheetId="2" r:id="rId2"/>
-    <sheet name="CardPayment" sheetId="3" r:id="rId3"/>
-    <sheet name="CashPayment" sheetId="4" r:id="rId4"/>
-    <sheet name="UpdateReservation" sheetId="5" r:id="rId5"/>
+    <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="SearchThirdParty" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="CardPayment" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="CheckinCard" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CheckinCash" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="UpdateReservation" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Select Source</t>
   </si>
@@ -32,6 +26,12 @@
     <t>confirmation Number</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>Prepaid Or Partial</t>
   </si>
   <si>
@@ -53,7 +53,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP456100</t>
+    <t>CHAP451006</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -74,6 +74,48 @@
     <t>Illinois</t>
   </si>
   <si>
+    <t>AirportParking</t>
+  </si>
+  <si>
+    <t>AP457871006</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>TN4896</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>GlobalParkingReservation</t>
+  </si>
+  <si>
+    <t>GPR7891006</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Crosstrek</t>
+  </si>
+  <si>
+    <t>SD4568</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
     <t>Reservation Prepaid</t>
   </si>
   <si>
@@ -92,6 +134,21 @@
     <t>Walk-in</t>
   </si>
   <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>740 Series</t>
+  </si>
+  <si>
+    <t>IC457694</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
@@ -104,12 +161,21 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>CHAP451005</t>
+  </si>
+  <si>
     <t>Confirmation Number</t>
   </si>
   <si>
     <t>PaymentMode</t>
   </si>
   <si>
+    <t>AP457871005</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>Card Information</t>
   </si>
   <si>
@@ -128,7 +194,10 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>BRHM1166048</t>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
   </si>
   <si>
     <t>Card</t>
@@ -142,16 +211,43 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>MeenaKumari@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>Cash</t>
+    <t>BRHM1166316</t>
+  </si>
+  <si>
+    <t>Billa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>billa@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>BRHM1166287</t>
+  </si>
+  <si>
+    <t>Test@example.com</t>
+  </si>
+  <si>
+    <t>BRHM1166286</t>
+  </si>
+  <si>
+    <t>Test2@example.com</t>
+  </si>
+  <si>
+    <t>BRHM1166282</t>
   </si>
   <si>
     <t>Click Button</t>
@@ -159,84 +255,64 @@
   <si>
     <t>Update Reservation</t>
   </si>
-  <si>
-    <t>BRHM1066105</t>
-  </si>
-  <si>
-    <t>Checkbox</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Billa</t>
-  </si>
-  <si>
-    <t>billa@gmail.com</t>
-  </si>
-  <si>
-    <t>BRHM1166246</t>
-  </si>
-  <si>
-    <t>BRHM1166245</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d-mmm"/>
+  </numFmts>
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF22191B"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF22191B"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF22191B"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF22191B"/>
-      <name val="Monospace"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -244,7 +320,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -253,61 +329,139 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="26">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="16" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -497,38 +651,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="3" max="5" width="17.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -543,21 +694,27 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -569,293 +726,574 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45767.0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.2">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="6" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45927</v>
-      </c>
-      <c r="E2" s="8">
-        <v>686</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="8">
-        <v>30048</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10">
-        <v>4157760715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45927</v>
-      </c>
-      <c r="E3" s="8">
-        <v>686</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="8">
-        <v>30048</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>4157760715</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{81061AAD-713D-4602-AA5B-C8A5F6D4C2C1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45927.0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>686.0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="15">
+        <v>30048.0</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
+      <c r="J2" s="18">
+        <v>4.177760725E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>686.0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="15">
+        <v>30048.0</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>4.157750825E9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="21">
+        <v>45927.0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>111.0</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="22">
+        <v>23455.0</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="24">
+        <v>4.087873645E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="21">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>111.0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="22">
+        <v>48767.0</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>4.080873645E9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="2" max="2" width="25.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -5,12 +5,13 @@
   <sheets>
     <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SearchThirdParty" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CardPayment" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="CheckinCard" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="CheckinCash" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="UpdateReservation" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Sheet29" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="SearchThirdParty" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="CashPayment" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="CardPayment" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CheckinCard" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="CheckinCash" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="UpdateReservation" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>Select Source</t>
   </si>
@@ -50,10 +51,13 @@
     <t>State</t>
   </si>
   <si>
+    <t>Oversize Category</t>
+  </si>
+  <si>
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP451006</t>
+    <t>CHAP451018</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -68,16 +72,19 @@
     <t>Avalon</t>
   </si>
   <si>
-    <t>Il75407</t>
+    <t>Il75408</t>
   </si>
   <si>
     <t>Illinois</t>
   </si>
   <si>
+    <t>Medium - $5.00</t>
+  </si>
+  <si>
     <t>AirportParking</t>
   </si>
   <si>
-    <t>AP457871006</t>
+    <t>AP457871016</t>
   </si>
   <si>
     <t>Blue</t>
@@ -95,10 +102,13 @@
     <t>Tennessee</t>
   </si>
   <si>
+    <t>Large - $7.00</t>
+  </si>
+  <si>
     <t>GlobalParkingReservation</t>
   </si>
   <si>
-    <t>GPR7891006</t>
+    <t>GPR7891012</t>
   </si>
   <si>
     <t>Maroon</t>
@@ -116,6 +126,9 @@
     <t>South Dakota</t>
   </si>
   <si>
+    <t>ExtraLarge - $9.00</t>
+  </si>
+  <si>
     <t>Reservation Prepaid</t>
   </si>
   <si>
@@ -125,7 +138,7 @@
     <t>Non Prepaid</t>
   </si>
   <si>
-    <t>NC45769</t>
+    <t>NC45761</t>
   </si>
   <si>
     <t>North Carolina</t>
@@ -161,7 +174,7 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>CHAP451005</t>
+    <t>CHAP451015</t>
   </si>
   <si>
     <t>Confirmation Number</t>
@@ -170,7 +183,7 @@
     <t>PaymentMode</t>
   </si>
   <si>
-    <t>AP457871005</t>
+    <t>BRHM1166391</t>
   </si>
   <si>
     <t>Cash</t>
@@ -198,6 +211,9 @@
   </si>
   <si>
     <t>Phone Number</t>
+  </si>
+  <si>
+    <t>BRHM1166394</t>
   </si>
   <si>
     <t>Card</t>
@@ -219,7 +235,7 @@
     </r>
   </si>
   <si>
-    <t>BRHM1166316</t>
+    <t>BRHM1166392</t>
   </si>
   <si>
     <t>Billa</t>
@@ -235,19 +251,19 @@
     </r>
   </si>
   <si>
-    <t>BRHM1166287</t>
+    <t>BRHM1166395</t>
   </si>
   <si>
     <t>Test@example.com</t>
   </si>
   <si>
-    <t>BRHM1166286</t>
+    <t>BRHM1166396</t>
   </si>
   <si>
     <t>Test2@example.com</t>
   </si>
   <si>
-    <t>BRHM1166282</t>
+    <t>AP457871011</t>
   </si>
   <si>
     <t>Click Button</t>
@@ -282,14 +298,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF22191B"/>
       <name val="Monospace"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -341,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -354,14 +370,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -377,6 +393,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -457,6 +476,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -700,101 +723,113 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45767.0</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45769.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45769.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45769.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45769.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45767.0</v>
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45769.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45769.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>31</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -843,89 +878,89 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45767.0</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45769.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45769.0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45767.0</v>
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45769.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45769.0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45767.0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>45767.0</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45768.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45768.0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -934,6 +969,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -953,7 +1002,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -973,144 +1022,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+      <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
-    <col customWidth="1" min="10" max="10" width="19.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="14">
-        <v>45927.0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>686.0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="15">
-        <v>30048.0</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="18">
-        <v>4.177760725E9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="14">
-        <v>45927.0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>686.0</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="15">
-        <v>30048.0</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>4.157750825E9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H3"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1132,98 +1059,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="15">
+        <v>45927.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>686.0</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="21">
-        <v>45927.0</v>
-      </c>
-      <c r="E2" s="22">
-        <v>111.0</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="22">
-        <v>23455.0</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="16">
+        <v>30048.0</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="23" t="b">
+      <c r="I2" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="24">
-        <v>4.087873645E9</v>
+      <c r="J2" s="19">
+        <v>4.177760725E9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>686.0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="16">
+        <v>30048.0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>4.157750825E9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="21">
+      <c r="I1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="22">
         <v>45927.0</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E2" s="23">
         <v>111.0</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="23">
+        <v>23455.0</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="25">
+        <v>4.087873645E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="22">
+      <c r="C3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="22">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>111.0</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="23">
         <v>48767.0</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="23" t="b">
+      <c r="H3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <v>4.080873645E9</v>
       </c>
     </row>
@@ -1232,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1243,19 +1292,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>48</v>
+      <c r="A1" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1282,15 +1331,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/ExcelTestData.xlsx
+++ b/src/test/resources/TestData/ExcelTestData.xlsx
@@ -5,13 +5,12 @@
   <sheets>
     <sheet state="visible" name="ThirdParty" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="KodaWalkIn" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet29" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SearchThirdParty" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CashPayment" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="CardPayment" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="CheckinCard" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="CheckinCash" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="UpdateReservation" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="SearchThirdParty" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CashPayment" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="CardPayment" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="CheckinCard" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CheckinCash" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="UpdateReservation" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -57,7 +56,7 @@
     <t>CheapAirportParking</t>
   </si>
   <si>
-    <t>CHAP451018</t>
+    <t>CHAP451039</t>
   </si>
   <si>
     <t>Prepaid/Partial</t>
@@ -72,7 +71,7 @@
     <t>Avalon</t>
   </si>
   <si>
-    <t>Il75408</t>
+    <t>Il75409</t>
   </si>
   <si>
     <t>Illinois</t>
@@ -84,7 +83,7 @@
     <t>AirportParking</t>
   </si>
   <si>
-    <t>AP457871016</t>
+    <t>AP457871039</t>
   </si>
   <si>
     <t>Blue</t>
@@ -96,7 +95,7 @@
     <t>Atlas</t>
   </si>
   <si>
-    <t>TN4896</t>
+    <t>TN4899</t>
   </si>
   <si>
     <t>Tennessee</t>
@@ -108,7 +107,7 @@
     <t>GlobalParkingReservation</t>
   </si>
   <si>
-    <t>GPR7891012</t>
+    <t>GPR7891039</t>
   </si>
   <si>
     <t>Maroon</t>
@@ -120,7 +119,7 @@
     <t>Crosstrek</t>
   </si>
   <si>
-    <t>SD4568</t>
+    <t>SD4569</t>
   </si>
   <si>
     <t>South Dakota</t>
@@ -138,7 +137,7 @@
     <t>Non Prepaid</t>
   </si>
   <si>
-    <t>NC45761</t>
+    <t>NC45767</t>
   </si>
   <si>
     <t>North Carolina</t>
@@ -156,7 +155,7 @@
     <t>740 Series</t>
   </si>
   <si>
-    <t>IC457694</t>
+    <t>IC457699</t>
   </si>
   <si>
     <t>Iowa</t>
@@ -168,13 +167,13 @@
     <t>Camry</t>
   </si>
   <si>
-    <t>AR75436</t>
+    <t>AR75438</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>CHAP451015</t>
+    <t>BRHM1168610</t>
   </si>
   <si>
     <t>Confirmation Number</t>
@@ -183,7 +182,7 @@
     <t>PaymentMode</t>
   </si>
   <si>
-    <t>BRHM1166391</t>
+    <t>BRHM1168609</t>
   </si>
   <si>
     <t>Cash</t>
@@ -213,7 +212,7 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>BRHM1166394</t>
+    <t>BRHM1168607</t>
   </si>
   <si>
     <t>Card</t>
@@ -235,7 +234,7 @@
     </r>
   </si>
   <si>
-    <t>BRHM1166392</t>
+    <t>BRHM1168608</t>
   </si>
   <si>
     <t>Billa</t>
@@ -251,19 +250,19 @@
     </r>
   </si>
   <si>
-    <t>BRHM1166395</t>
+    <t>BRHM1168606</t>
   </si>
   <si>
     <t>Test@example.com</t>
   </si>
   <si>
-    <t>BRHM1166396</t>
+    <t>BRHM1168604</t>
   </si>
   <si>
     <t>Test2@example.com</t>
   </si>
   <si>
-    <t>AP457871011</t>
+    <t>BRHM1168605</t>
   </si>
   <si>
     <t>Click Button</t>
@@ -280,7 +279,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="d-mmm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -330,8 +329,13 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +346,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFBFF"/>
         <bgColor rgb="FFFFFBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -420,6 +430,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -476,10 +489,6 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -735,10 +744,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="5">
-        <v>45769.0</v>
+        <v>45805.0</v>
       </c>
       <c r="D2" s="5">
-        <v>45769.0</v>
+        <v>45806.0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -770,10 +779,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="5">
-        <v>45769.0</v>
+        <v>45806.0</v>
       </c>
       <c r="D3" s="5">
-        <v>45769.0</v>
+        <v>45807.0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -805,10 +814,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5">
-        <v>45769.0</v>
+        <v>45807.0</v>
       </c>
       <c r="D4" s="5">
-        <v>45769.0</v>
+        <v>45808.0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -881,10 +890,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="5">
-        <v>45769.0</v>
+        <v>45798.0</v>
       </c>
       <c r="C2" s="5">
-        <v>45769.0</v>
+        <v>45805.0</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>38</v>
@@ -910,10 +919,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="5">
-        <v>45769.0</v>
+        <v>45798.0</v>
       </c>
       <c r="C3" s="5">
-        <v>45769.0</v>
+        <v>45806.0</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
@@ -939,10 +948,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="5">
-        <v>45768.0</v>
+        <v>45798.0</v>
       </c>
       <c r="C4" s="5">
-        <v>45768.0</v>
+        <v>45807.0</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>38</v>
@@ -956,7 +965,7 @@
       <c r="G4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -969,20 +978,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1010,6 +1005,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -1019,25 +1048,116 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="C1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="15">
+        <v>45927.0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>686.0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="16">
+        <v>30048.0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>4.177760725E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45927.0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>686.0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="16">
+        <v>30048.0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>4.159750825E9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1091,156 +1211,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="23">
         <v>45927.0</v>
       </c>
-      <c r="E2" s="16">
-        <v>686.0</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="24">
+        <v>111.0</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="16">
-        <v>30048.0</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="18" t="b">
+      <c r="G2" s="24">
+        <v>23455.0</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="19">
-        <v>4.177760725E9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="15">
-        <v>45927.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>686.0</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="16">
-        <v>30048.0</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>4.157750825E9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H3"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
-    <col customWidth="1" min="10" max="10" width="19.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="22">
-        <v>45927.0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>111.0</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="23">
-        <v>23455.0</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="25">
+      <c r="J2" s="26">
         <v>4.087873645E9</v>
       </c>
     </row>
@@ -1248,31 +1246,31 @@
       <c r="A3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="23">
         <v>45927.0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="24">
         <v>111.0</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="24">
         <v>48767.0</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="24" t="b">
+      <c r="I3" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="26">
         <v>4.080873645E9</v>
       </c>
     </row>
@@ -1281,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1292,7 +1290,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1312,7 +1310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1335,8 +1333,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>74</v>
+      <c r="A2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>78</v>
